--- a/data/pca/factorExposure/factorExposure_2009-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01739606536132545</v>
+        <v>-0.01690331310267875</v>
       </c>
       <c r="C2">
-        <v>0.002164621349060853</v>
+        <v>0.001593349590888149</v>
       </c>
       <c r="D2">
-        <v>0.008262359500468077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008867685897387838</v>
+      </c>
+      <c r="E2">
+        <v>0.01765740096282063</v>
+      </c>
+      <c r="F2">
+        <v>-0.007572899625716373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08405050848837771</v>
+        <v>-0.08739013007726187</v>
       </c>
       <c r="C4">
-        <v>0.01948375958804457</v>
+        <v>0.01562252242145065</v>
       </c>
       <c r="D4">
-        <v>0.08631726831900051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08794313987330972</v>
+      </c>
+      <c r="E4">
+        <v>-0.05001399329563748</v>
+      </c>
+      <c r="F4">
+        <v>0.01492194429337442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.000771854074663765</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9.691900372130264e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001010632622516614</v>
+      </c>
+      <c r="E5">
+        <v>0.0002988184674540658</v>
+      </c>
+      <c r="F5">
+        <v>-0.00210169851315396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1608473645664677</v>
+        <v>-0.166507362698189</v>
       </c>
       <c r="C6">
-        <v>0.0370412481446483</v>
+        <v>0.03488857655922276</v>
       </c>
       <c r="D6">
-        <v>-0.01959824010812036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01165141469377416</v>
+      </c>
+      <c r="E6">
+        <v>-0.06114839896303682</v>
+      </c>
+      <c r="F6">
+        <v>0.008157860462727769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05514735319234228</v>
+        <v>-0.05985280299437959</v>
       </c>
       <c r="C7">
-        <v>0.001335824764867002</v>
+        <v>-0.001384093384278021</v>
       </c>
       <c r="D7">
-        <v>0.05307513993122975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0572354716142808</v>
+      </c>
+      <c r="E7">
+        <v>-0.03230601746773975</v>
+      </c>
+      <c r="F7">
+        <v>0.05580065816633437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05756332208852613</v>
+        <v>-0.05460164326488409</v>
       </c>
       <c r="C8">
-        <v>-0.009802903337961079</v>
+        <v>-0.0112706235603872</v>
       </c>
       <c r="D8">
-        <v>0.0308507384582813</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03343397026525691</v>
+      </c>
+      <c r="E8">
+        <v>0.02387259043594179</v>
+      </c>
+      <c r="F8">
+        <v>-0.02188166142703864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06486210501014973</v>
+        <v>-0.06813437913023315</v>
       </c>
       <c r="C9">
-        <v>0.01505555331299143</v>
+        <v>0.01131231645880755</v>
       </c>
       <c r="D9">
-        <v>0.08976386103862405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.09150371456336993</v>
+      </c>
+      <c r="E9">
+        <v>-0.06533626076277572</v>
+      </c>
+      <c r="F9">
+        <v>0.02364894499065153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09493646220219085</v>
+        <v>-0.09158050262521876</v>
       </c>
       <c r="C10">
-        <v>0.02342638357943962</v>
+        <v>0.02470388130910129</v>
       </c>
       <c r="D10">
-        <v>-0.1649129614363535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1536547154403729</v>
+      </c>
+      <c r="E10">
+        <v>0.08528196577591864</v>
+      </c>
+      <c r="F10">
+        <v>-0.01253836542013321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08626494766956058</v>
+        <v>-0.08402639626740296</v>
       </c>
       <c r="C11">
-        <v>0.01691205815376029</v>
+        <v>0.01234100361209248</v>
       </c>
       <c r="D11">
-        <v>0.1346312954932486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1352876482584185</v>
+      </c>
+      <c r="E11">
+        <v>-0.03627707383983948</v>
+      </c>
+      <c r="F11">
+        <v>-0.007686966347545972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09122469472274293</v>
+        <v>-0.08686878546229178</v>
       </c>
       <c r="C12">
-        <v>0.01478210901499661</v>
+        <v>0.009708259016150448</v>
       </c>
       <c r="D12">
-        <v>0.1422998153450412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1494580278522579</v>
+      </c>
+      <c r="E12">
+        <v>-0.03198608729364233</v>
+      </c>
+      <c r="F12">
+        <v>0.004737340352010779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04311450053936308</v>
+        <v>-0.04382167276093221</v>
       </c>
       <c r="C13">
-        <v>0.007615373112644799</v>
+        <v>0.00407752981536344</v>
       </c>
       <c r="D13">
-        <v>0.05168986739012392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05906108311032432</v>
+      </c>
+      <c r="E13">
+        <v>-0.002828221324884062</v>
+      </c>
+      <c r="F13">
+        <v>0.01989634236342933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0194085373813794</v>
+        <v>-0.02218823169867455</v>
       </c>
       <c r="C14">
-        <v>0.01482012486209149</v>
+        <v>0.01393499233528949</v>
       </c>
       <c r="D14">
-        <v>0.04145330175221434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04185709365932543</v>
+      </c>
+      <c r="E14">
+        <v>-0.0311413233714378</v>
+      </c>
+      <c r="F14">
+        <v>0.003040165815699067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03294809350445172</v>
+        <v>-0.03409436592703752</v>
       </c>
       <c r="C15">
-        <v>0.00815113110868239</v>
+        <v>0.006665025326713487</v>
       </c>
       <c r="D15">
-        <v>0.05517802174196394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0540254303496135</v>
+      </c>
+      <c r="E15">
+        <v>-0.02530342785608699</v>
+      </c>
+      <c r="F15">
+        <v>0.01545834209356514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06687639386634213</v>
+        <v>-0.06649055393724317</v>
       </c>
       <c r="C16">
-        <v>0.005409473677251296</v>
+        <v>0.001049879021268</v>
       </c>
       <c r="D16">
-        <v>0.1358402723724182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1427011179480323</v>
+      </c>
+      <c r="E16">
+        <v>-0.04414846283438571</v>
+      </c>
+      <c r="F16">
+        <v>-0.01376450215109504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002587846883982286</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001133351332129135</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002599057724371921</v>
+      </c>
+      <c r="E17">
+        <v>-0.0002456751926112503</v>
+      </c>
+      <c r="F17">
+        <v>-0.007245363437386234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03016917033075002</v>
+        <v>-0.04663987955248715</v>
       </c>
       <c r="C18">
-        <v>-0.0003323672108686954</v>
+        <v>0.0001530667559088481</v>
       </c>
       <c r="D18">
-        <v>0.02757275805580395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02517472520067772</v>
+      </c>
+      <c r="E18">
+        <v>0.01923223249677868</v>
+      </c>
+      <c r="F18">
+        <v>0.0006824069556688356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06187797855643489</v>
+        <v>-0.06132406314056563</v>
       </c>
       <c r="C20">
-        <v>0.004838397264301384</v>
+        <v>0.002248415293510196</v>
       </c>
       <c r="D20">
-        <v>0.09186483415439196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09216646479429509</v>
+      </c>
+      <c r="E20">
+        <v>-0.05895328563997608</v>
+      </c>
+      <c r="F20">
+        <v>-0.007711987154365421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03924150882585754</v>
+        <v>-0.0417113593548533</v>
       </c>
       <c r="C21">
-        <v>0.009884855526408078</v>
+        <v>0.007435137535611946</v>
       </c>
       <c r="D21">
-        <v>0.04442857787729262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04432594458895294</v>
+      </c>
+      <c r="E21">
+        <v>0.01893007004249036</v>
+      </c>
+      <c r="F21">
+        <v>0.005827619072305019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04553349427924695</v>
+        <v>-0.04458805283049702</v>
       </c>
       <c r="C22">
-        <v>0.004445673065510062</v>
+        <v>0.002572800586489502</v>
       </c>
       <c r="D22">
-        <v>0.007415719421071185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01678484993508043</v>
+      </c>
+      <c r="E22">
+        <v>0.03980952716631262</v>
+      </c>
+      <c r="F22">
+        <v>-0.1256417206535954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04554233681018521</v>
+        <v>-0.04459558453540387</v>
       </c>
       <c r="C23">
-        <v>0.004448076164289182</v>
+        <v>0.002575024368892196</v>
       </c>
       <c r="D23">
-        <v>0.007407546379547172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01677856701410793</v>
+      </c>
+      <c r="E23">
+        <v>0.03983191315254401</v>
+      </c>
+      <c r="F23">
+        <v>-0.1256816605640089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07517443959689808</v>
+        <v>-0.07352050639574388</v>
       </c>
       <c r="C24">
-        <v>0.006597802531670384</v>
+        <v>0.00238334038899956</v>
       </c>
       <c r="D24">
-        <v>0.1374673968127948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1366202385796686</v>
+      </c>
+      <c r="E24">
+        <v>-0.0403786212014642</v>
+      </c>
+      <c r="F24">
+        <v>0.005050520608541885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08052880671706923</v>
+        <v>-0.07833586066867607</v>
       </c>
       <c r="C25">
-        <v>0.009232673820353947</v>
+        <v>0.005302308645446211</v>
       </c>
       <c r="D25">
-        <v>0.126170477212604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1254474851739683</v>
+      </c>
+      <c r="E25">
+        <v>-0.02513137687722053</v>
+      </c>
+      <c r="F25">
+        <v>0.02082821782393271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05747434693364881</v>
+        <v>-0.0622657834232953</v>
       </c>
       <c r="C26">
-        <v>0.01888548905152813</v>
+        <v>0.01635361234101559</v>
       </c>
       <c r="D26">
-        <v>0.06431078349780434</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06546251750256005</v>
+      </c>
+      <c r="E26">
+        <v>-0.003186338451278297</v>
+      </c>
+      <c r="F26">
+        <v>-0.00799207277597812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1532770874775529</v>
+        <v>-0.1577001151063213</v>
       </c>
       <c r="C28">
-        <v>0.02824479860413682</v>
+        <v>0.03118060557595436</v>
       </c>
       <c r="D28">
-        <v>-0.250471118888807</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2465396516213209</v>
+      </c>
+      <c r="E28">
+        <v>0.01683657603311934</v>
+      </c>
+      <c r="F28">
+        <v>0.04773791052126667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02560290968030977</v>
+        <v>-0.02770064426338006</v>
       </c>
       <c r="C29">
-        <v>0.009705232845950616</v>
+        <v>0.009242807073328</v>
       </c>
       <c r="D29">
-        <v>0.03940367109439636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03843402477240077</v>
+      </c>
+      <c r="E29">
+        <v>0.002981711897327013</v>
+      </c>
+      <c r="F29">
+        <v>-0.02110320343656591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05041514540222451</v>
+        <v>-0.04990586220059047</v>
       </c>
       <c r="C30">
-        <v>0.005668112041892485</v>
+        <v>0.002353925874298071</v>
       </c>
       <c r="D30">
-        <v>0.07694488349146067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08205563754007394</v>
+      </c>
+      <c r="E30">
+        <v>-0.08029451573157287</v>
+      </c>
+      <c r="F30">
+        <v>0.07183082445818505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05091761017237866</v>
+        <v>-0.05164867475391127</v>
       </c>
       <c r="C31">
-        <v>0.01898976117219481</v>
+        <v>0.01697144197049598</v>
       </c>
       <c r="D31">
-        <v>0.03062114404649369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03399723793281345</v>
+      </c>
+      <c r="E31">
+        <v>-0.01285946186883968</v>
+      </c>
+      <c r="F31">
+        <v>-0.0331442376731971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04433605200966233</v>
+        <v>-0.04980440143815083</v>
       </c>
       <c r="C32">
-        <v>0.00138917834705064</v>
+        <v>-0.001217618253039464</v>
       </c>
       <c r="D32">
-        <v>0.03858109122286955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04018296547204928</v>
+      </c>
+      <c r="E32">
+        <v>-0.01538081453899609</v>
+      </c>
+      <c r="F32">
+        <v>-0.01924582246415215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08527581033018833</v>
+        <v>-0.08716954906884936</v>
       </c>
       <c r="C33">
-        <v>0.01323553361992213</v>
+        <v>0.008400143014090752</v>
       </c>
       <c r="D33">
-        <v>0.10854049803104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1159984828322738</v>
+      </c>
+      <c r="E33">
+        <v>-0.04791247987015671</v>
+      </c>
+      <c r="F33">
+        <v>-0.009847272684254628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06323645107710944</v>
+        <v>-0.06335780681844164</v>
       </c>
       <c r="C34">
-        <v>0.01510931400000193</v>
+        <v>0.01065153304193716</v>
       </c>
       <c r="D34">
-        <v>0.1144018628861566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.122597134262043</v>
+      </c>
+      <c r="E34">
+        <v>-0.03731491500789046</v>
+      </c>
+      <c r="F34">
+        <v>0.02813329244134831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02668303517732535</v>
+        <v>-0.02801821718035016</v>
       </c>
       <c r="C35">
-        <v>0.004982370212222378</v>
+        <v>0.004403110931775466</v>
       </c>
       <c r="D35">
-        <v>0.01218502013264161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0147813356933424</v>
+      </c>
+      <c r="E35">
+        <v>-0.01177812170879922</v>
+      </c>
+      <c r="F35">
+        <v>-0.01701810367192708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02242227379798924</v>
+        <v>-0.02697674280427681</v>
       </c>
       <c r="C36">
-        <v>0.008431072108454713</v>
+        <v>0.007673227708198923</v>
       </c>
       <c r="D36">
-        <v>0.04404060143037442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04707420944218677</v>
+      </c>
+      <c r="E36">
+        <v>-0.03668479361749217</v>
+      </c>
+      <c r="F36">
+        <v>-0.0127490297937621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003320385980050844</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008579741685127252</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003453864941960307</v>
+      </c>
+      <c r="E37">
+        <v>0.001496552972998303</v>
+      </c>
+      <c r="F37">
+        <v>-3.839200677439521e-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09932834445861448</v>
+        <v>-0.09130271286743015</v>
       </c>
       <c r="C39">
-        <v>0.02111045534643554</v>
+        <v>0.01568587459881486</v>
       </c>
       <c r="D39">
-        <v>0.1732479957091943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1662427217804053</v>
+      </c>
+      <c r="E39">
+        <v>-0.02982221854787836</v>
+      </c>
+      <c r="F39">
+        <v>-0.009369664769860642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04417030926381936</v>
+        <v>-0.04944945522895261</v>
       </c>
       <c r="C40">
-        <v>0.01201145622232497</v>
+        <v>0.01060129820968309</v>
       </c>
       <c r="D40">
-        <v>0.04190266076060034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04551751655635908</v>
+      </c>
+      <c r="E40">
+        <v>0.02226176902167321</v>
+      </c>
+      <c r="F40">
+        <v>0.003326388599040761</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02678727198085694</v>
+        <v>-0.0288072439402639</v>
       </c>
       <c r="C41">
-        <v>0.008399349754036379</v>
+        <v>0.007908701023547838</v>
       </c>
       <c r="D41">
-        <v>0.01783824849273847</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01866539109491696</v>
+      </c>
+      <c r="E41">
+        <v>0.009010027627299064</v>
+      </c>
+      <c r="F41">
+        <v>-0.004884209212629479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04081069698085749</v>
+        <v>-0.03993747187095633</v>
       </c>
       <c r="C43">
-        <v>0.009006302388298665</v>
+        <v>0.008126628781611243</v>
       </c>
       <c r="D43">
-        <v>0.03098871957445805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02980905962607635</v>
+      </c>
+      <c r="E43">
+        <v>0.006646680153342304</v>
+      </c>
+      <c r="F43">
+        <v>-0.02521376953715871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06035014687554294</v>
+        <v>-0.06853885918647881</v>
       </c>
       <c r="C44">
-        <v>0.02197838660305143</v>
+        <v>0.01889733543979977</v>
       </c>
       <c r="D44">
-        <v>0.07982904184351351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08846955375784277</v>
+      </c>
+      <c r="E44">
+        <v>-0.2188484659231358</v>
+      </c>
+      <c r="F44">
+        <v>0.07838793889269001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0001864527498745398</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.748417121518502e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-1.657719959705943e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0004133923424106782</v>
+      </c>
+      <c r="F45">
+        <v>0.0004122276342982585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02364368255245224</v>
+        <v>-0.02591759528245089</v>
       </c>
       <c r="C46">
-        <v>0.004817952742617104</v>
+        <v>0.004150806735702623</v>
       </c>
       <c r="D46">
-        <v>0.02553687398723367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02516071941828322</v>
+      </c>
+      <c r="E46">
+        <v>0.001341948147373302</v>
+      </c>
+      <c r="F46">
+        <v>-0.03193632002443041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05410422752246146</v>
+        <v>-0.0529655343683398</v>
       </c>
       <c r="C47">
-        <v>0.00733924476158612</v>
+        <v>0.005618015060084351</v>
       </c>
       <c r="D47">
-        <v>0.0192048140238792</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01984537715005569</v>
+      </c>
+      <c r="E47">
+        <v>0.01428417163199492</v>
+      </c>
+      <c r="F47">
+        <v>-0.0547867530460641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.049113941772193</v>
+        <v>-0.05292610555291911</v>
       </c>
       <c r="C48">
-        <v>0.006309682435831329</v>
+        <v>0.004096533964714783</v>
       </c>
       <c r="D48">
-        <v>0.06449532301273238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06343032911761633</v>
+      </c>
+      <c r="E48">
+        <v>-0.006113748225591989</v>
+      </c>
+      <c r="F48">
+        <v>0.02164347737975373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1949129644099966</v>
+        <v>-0.1970272322517106</v>
       </c>
       <c r="C49">
-        <v>0.02847778839667727</v>
+        <v>0.02451550780792046</v>
       </c>
       <c r="D49">
-        <v>-0.00923098019910268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005272804872917213</v>
+      </c>
+      <c r="E49">
+        <v>-0.0447445864328646</v>
+      </c>
+      <c r="F49">
+        <v>0.03947691200461576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04954676262403607</v>
+        <v>-0.05237356310291378</v>
       </c>
       <c r="C50">
-        <v>0.0145749383428529</v>
+        <v>0.01306573681759875</v>
       </c>
       <c r="D50">
-        <v>0.03232465527360774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03379015860332648</v>
+      </c>
+      <c r="E50">
+        <v>-0.02460414173403999</v>
+      </c>
+      <c r="F50">
+        <v>-0.01899357567506017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.151420687936253</v>
+        <v>-0.1448886593320879</v>
       </c>
       <c r="C52">
-        <v>0.02578339213216808</v>
+        <v>0.02177684704619067</v>
       </c>
       <c r="D52">
-        <v>0.04851378922607805</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04952386074227389</v>
+      </c>
+      <c r="E52">
+        <v>-0.05925558597428906</v>
+      </c>
+      <c r="F52">
+        <v>-0.01601241412620032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1751871212590529</v>
+        <v>-0.1675138793553843</v>
       </c>
       <c r="C53">
-        <v>0.02893464661564087</v>
+        <v>0.02586064767077686</v>
       </c>
       <c r="D53">
-        <v>0.008470695568001438</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.009903853999270176</v>
+      </c>
+      <c r="E53">
+        <v>-0.112920307658153</v>
+      </c>
+      <c r="F53">
+        <v>-0.01238367925863368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01410977622730433</v>
+        <v>-0.01736648214398551</v>
       </c>
       <c r="C54">
-        <v>0.01176636108556591</v>
+        <v>0.01113366917069196</v>
       </c>
       <c r="D54">
-        <v>0.03593201583377958</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03344986998443442</v>
+      </c>
+      <c r="E54">
+        <v>-0.007036041296412778</v>
+      </c>
+      <c r="F54">
+        <v>-0.01424188951977906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1200678602055989</v>
+        <v>-0.1174885586375388</v>
       </c>
       <c r="C55">
-        <v>0.025077938491042</v>
+        <v>0.02255516337729474</v>
       </c>
       <c r="D55">
-        <v>0.01221497580766932</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0183574791157888</v>
+      </c>
+      <c r="E55">
+        <v>-0.0676114513901992</v>
+      </c>
+      <c r="F55">
+        <v>-0.04179447063997019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1809659806667299</v>
+        <v>-0.1750692284775369</v>
       </c>
       <c r="C56">
-        <v>0.02704852775834238</v>
+        <v>0.02420837055827779</v>
       </c>
       <c r="D56">
-        <v>0.002298192532658839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003809175726299947</v>
+      </c>
+      <c r="E56">
+        <v>-0.07547581760919678</v>
+      </c>
+      <c r="F56">
+        <v>-0.03412691502942213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0453903704036674</v>
+        <v>-0.04465378586219591</v>
       </c>
       <c r="C58">
-        <v>0.004179557330853366</v>
+        <v>0.0003969843933366731</v>
       </c>
       <c r="D58">
-        <v>0.08650778001256931</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.09325781418089368</v>
+      </c>
+      <c r="E58">
+        <v>0.01832868297976555</v>
+      </c>
+      <c r="F58">
+        <v>-0.03984467730150302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1716865375857347</v>
+        <v>-0.1763059321130176</v>
       </c>
       <c r="C59">
-        <v>0.02765669240004547</v>
+        <v>0.03006978180205382</v>
       </c>
       <c r="D59">
-        <v>-0.2173890214200657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.215061536470081</v>
+      </c>
+      <c r="E59">
+        <v>0.07708258939536325</v>
+      </c>
+      <c r="F59">
+        <v>-0.01007607959608432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2236430347007785</v>
+        <v>-0.2185728306927665</v>
       </c>
       <c r="C60">
-        <v>0.008242458145460279</v>
+        <v>0.003729065021039763</v>
       </c>
       <c r="D60">
-        <v>0.01842013014085834</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01910781457700024</v>
+      </c>
+      <c r="E60">
+        <v>0.01638803466714149</v>
+      </c>
+      <c r="F60">
+        <v>-0.003303472411686299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07247309197152714</v>
+        <v>-0.06882579191741975</v>
       </c>
       <c r="C61">
-        <v>0.01516904965877141</v>
+        <v>0.01079072483519134</v>
       </c>
       <c r="D61">
-        <v>0.1242489957166773</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1242346718199108</v>
+      </c>
+      <c r="E61">
+        <v>-0.01455023401812892</v>
+      </c>
+      <c r="F61">
+        <v>-0.01576627168735481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1716659605987885</v>
+        <v>-0.1673042614784036</v>
       </c>
       <c r="C62">
-        <v>0.02968664143002558</v>
+        <v>0.0265199817059967</v>
       </c>
       <c r="D62">
-        <v>0.00822511228009775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.01194026335386813</v>
+      </c>
+      <c r="E62">
+        <v>-0.06534475002108221</v>
+      </c>
+      <c r="F62">
+        <v>-0.04124639089401023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04117059720795353</v>
+        <v>-0.04678490524956073</v>
       </c>
       <c r="C63">
-        <v>0.005486920616300474</v>
+        <v>0.003369328173846928</v>
       </c>
       <c r="D63">
-        <v>0.06892967004584077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07423994324794961</v>
+      </c>
+      <c r="E63">
+        <v>-0.01224176602454631</v>
+      </c>
+      <c r="F63">
+        <v>-0.02052157039412092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1143659582830831</v>
+        <v>-0.1115710938215494</v>
       </c>
       <c r="C64">
-        <v>0.01958802791164913</v>
+        <v>0.01586806840220028</v>
       </c>
       <c r="D64">
-        <v>0.05415769768319354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05547369148124148</v>
+      </c>
+      <c r="E64">
+        <v>-0.03448273941979454</v>
+      </c>
+      <c r="F64">
+        <v>-0.000232000226371942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1501222548983074</v>
+        <v>-0.1558262285719307</v>
       </c>
       <c r="C65">
-        <v>0.04296852905324065</v>
+        <v>0.04143383834112307</v>
       </c>
       <c r="D65">
-        <v>-0.04839062327258804</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03783798920654637</v>
+      </c>
+      <c r="E65">
+        <v>-0.06979146119701647</v>
+      </c>
+      <c r="F65">
+        <v>-0.005114268399863732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1203797958034182</v>
+        <v>-0.1103138855394489</v>
       </c>
       <c r="C66">
-        <v>0.01973883908551198</v>
+        <v>0.01381734866180307</v>
       </c>
       <c r="D66">
-        <v>0.1529418471112554</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1514876165481362</v>
+      </c>
+      <c r="E66">
+        <v>-0.03027093836341073</v>
+      </c>
+      <c r="F66">
+        <v>-0.007581984043611186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05951939497695136</v>
+        <v>-0.05236808445046393</v>
       </c>
       <c r="C67">
-        <v>0.006277770749418347</v>
+        <v>0.004052715999588881</v>
       </c>
       <c r="D67">
-        <v>0.06052179209938444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05947541271838913</v>
+      </c>
+      <c r="E67">
+        <v>0.05045036546722896</v>
+      </c>
+      <c r="F67">
+        <v>-0.07591467841180531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1228430278408008</v>
+        <v>-0.1287059232921332</v>
       </c>
       <c r="C68">
-        <v>0.03627325869032402</v>
+        <v>0.04047474524502346</v>
       </c>
       <c r="D68">
-        <v>-0.2595202695989499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.255844050626564</v>
+      </c>
+      <c r="E68">
+        <v>0.02895706222408762</v>
+      </c>
+      <c r="F68">
+        <v>0.07703506527968139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03931069215539111</v>
+        <v>-0.03884054098499343</v>
       </c>
       <c r="C69">
-        <v>0.003390921470242779</v>
+        <v>0.002392254136569439</v>
       </c>
       <c r="D69">
-        <v>0.012877702044961</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01226191219736236</v>
+      </c>
+      <c r="E69">
+        <v>-0.01446769121880518</v>
+      </c>
+      <c r="F69">
+        <v>-0.05198286621469272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06965953691870137</v>
+        <v>-0.07105080815732773</v>
       </c>
       <c r="C70">
-        <v>-0.02245971409160487</v>
+        <v>-0.02383650701644692</v>
       </c>
       <c r="D70">
-        <v>0.04182335546285978</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0393765696469872</v>
+      </c>
+      <c r="E70">
+        <v>0.324136272957212</v>
+      </c>
+      <c r="F70">
+        <v>-0.1807679413223418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1433027936838083</v>
+        <v>-0.1499700222935611</v>
       </c>
       <c r="C71">
-        <v>0.04212422026937701</v>
+        <v>0.0460763171670669</v>
       </c>
       <c r="D71">
-        <v>-0.2728190003313545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2649138509651863</v>
+      </c>
+      <c r="E71">
+        <v>0.03617280202414093</v>
+      </c>
+      <c r="F71">
+        <v>0.0870112955237408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1390527245245269</v>
+        <v>-0.145358987246293</v>
       </c>
       <c r="C72">
-        <v>0.03349633063274098</v>
+        <v>0.03210340559445245</v>
       </c>
       <c r="D72">
-        <v>0.01509338342844145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.009958626085954153</v>
+      </c>
+      <c r="E72">
+        <v>-0.06352818829417965</v>
+      </c>
+      <c r="F72">
+        <v>-0.03084574640252356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1953215405773631</v>
+        <v>-0.1999490891598406</v>
       </c>
       <c r="C73">
-        <v>0.02185322916047459</v>
+        <v>0.0166877610238542</v>
       </c>
       <c r="D73">
-        <v>0.01440419099692088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02006362071463489</v>
+      </c>
+      <c r="E73">
+        <v>-0.06113682641944754</v>
+      </c>
+      <c r="F73">
+        <v>-0.05264560203899248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08868999483662897</v>
+        <v>-0.08860570577895709</v>
       </c>
       <c r="C74">
-        <v>0.0166907559064319</v>
+        <v>0.01459775229630962</v>
       </c>
       <c r="D74">
-        <v>0.01934179320368409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02306053913990592</v>
+      </c>
+      <c r="E74">
+        <v>-0.07843481611477107</v>
+      </c>
+      <c r="F74">
+        <v>-0.01737366482476255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1285939517753586</v>
+        <v>-0.1211574795253277</v>
       </c>
       <c r="C75">
-        <v>0.03487203621144212</v>
+        <v>0.0314517496111513</v>
       </c>
       <c r="D75">
-        <v>0.03286110610581085</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03624478847112652</v>
+      </c>
+      <c r="E75">
+        <v>-0.06200253496832865</v>
+      </c>
+      <c r="F75">
+        <v>-0.0631780369874704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07703225565601016</v>
+        <v>-0.09099524088627507</v>
       </c>
       <c r="C77">
-        <v>0.01453598777377443</v>
+        <v>0.01122361957405027</v>
       </c>
       <c r="D77">
-        <v>0.1223224762766955</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1198258557822402</v>
+      </c>
+      <c r="E77">
+        <v>-0.05038949701846615</v>
+      </c>
+      <c r="F77">
+        <v>0.01806612502765862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09597684565298602</v>
+        <v>-0.0981559380155549</v>
       </c>
       <c r="C78">
-        <v>0.0430953014625092</v>
+        <v>0.04020323230982675</v>
       </c>
       <c r="D78">
-        <v>0.1384512003900324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1308543624862632</v>
+      </c>
+      <c r="E78">
+        <v>-0.04731993275991502</v>
+      </c>
+      <c r="F78">
+        <v>0.02248376387852797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1702359705878736</v>
+        <v>-0.16547847806505</v>
       </c>
       <c r="C79">
-        <v>0.03313201152591824</v>
+        <v>0.02948413525323383</v>
       </c>
       <c r="D79">
-        <v>0.02429862086278992</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02669315062453731</v>
+      </c>
+      <c r="E79">
+        <v>-0.03918465382303074</v>
+      </c>
+      <c r="F79">
+        <v>-0.03851479301024712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07894305903687124</v>
+        <v>-0.07706402247049914</v>
       </c>
       <c r="C80">
-        <v>0.003964011346276789</v>
+        <v>0.001614816960840106</v>
       </c>
       <c r="D80">
-        <v>0.05075937670023872</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05284919713387659</v>
+      </c>
+      <c r="E80">
+        <v>0.01673597714477051</v>
+      </c>
+      <c r="F80">
+        <v>-0.04686131438854634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1168487185189074</v>
+        <v>-0.1108807901161304</v>
       </c>
       <c r="C81">
-        <v>0.03662572130011246</v>
+        <v>0.03464186058961129</v>
       </c>
       <c r="D81">
-        <v>0.009870946573461407</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01417920515757084</v>
+      </c>
+      <c r="E81">
+        <v>-0.05099134911826202</v>
+      </c>
+      <c r="F81">
+        <v>-0.06401378849229879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1622289935235845</v>
+        <v>-0.1603970144812976</v>
       </c>
       <c r="C82">
-        <v>0.03270104022805792</v>
+        <v>0.02973140965377742</v>
       </c>
       <c r="D82">
-        <v>0.004631506354522319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004769635095728479</v>
+      </c>
+      <c r="E82">
+        <v>-0.1049500010459625</v>
+      </c>
+      <c r="F82">
+        <v>-0.005601073976510242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05696569444754057</v>
+        <v>-0.0524037856684943</v>
       </c>
       <c r="C83">
-        <v>0.006300989452724818</v>
+        <v>0.004150371592992053</v>
       </c>
       <c r="D83">
-        <v>0.04818811055169664</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04608060306994585</v>
+      </c>
+      <c r="E83">
+        <v>0.02521152957619176</v>
+      </c>
+      <c r="F83">
+        <v>-0.006915829945651742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0536673787733406</v>
+        <v>-0.05057925553151559</v>
       </c>
       <c r="C84">
-        <v>0.01305843488215238</v>
+        <v>0.01067811286651664</v>
       </c>
       <c r="D84">
-        <v>0.07591846745166897</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0753601356836906</v>
+      </c>
+      <c r="E84">
+        <v>-0.0104506057206743</v>
+      </c>
+      <c r="F84">
+        <v>-0.006274403747625926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401259170627983</v>
+        <v>-0.1346211175648803</v>
       </c>
       <c r="C85">
-        <v>0.03611962748702471</v>
+        <v>0.03322032052869211</v>
       </c>
       <c r="D85">
-        <v>0.01508467688483196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0178509153293734</v>
+      </c>
+      <c r="E85">
+        <v>-0.08054283142761653</v>
+      </c>
+      <c r="F85">
+        <v>-0.01776576563033787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08409200289875039</v>
+        <v>-0.08268749434179447</v>
       </c>
       <c r="C86">
-        <v>-0.004413122477562145</v>
+        <v>-0.006506311996588123</v>
       </c>
       <c r="D86">
-        <v>0.04083380547103195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06869785791963187</v>
+      </c>
+      <c r="E86">
+        <v>0.5607714545006534</v>
+      </c>
+      <c r="F86">
+        <v>-0.5848898921287771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08680082368165595</v>
+        <v>-0.08744285174192729</v>
       </c>
       <c r="C87">
-        <v>0.0270460555046142</v>
+        <v>0.02296903532184096</v>
       </c>
       <c r="D87">
-        <v>0.07973000584856756</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08311900003957361</v>
+      </c>
+      <c r="E87">
+        <v>-0.008771065466852043</v>
+      </c>
+      <c r="F87">
+        <v>0.1076049794240237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06228892694380424</v>
+        <v>-0.06107665167663264</v>
       </c>
       <c r="C88">
-        <v>0.006732143518678548</v>
+        <v>0.004424190457068084</v>
       </c>
       <c r="D88">
-        <v>0.06579803445792057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.06203975572655582</v>
+      </c>
+      <c r="E88">
+        <v>-0.01673496589714224</v>
+      </c>
+      <c r="F88">
+        <v>-0.01218038650531855</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1310153336978223</v>
+        <v>-0.1359404151642589</v>
       </c>
       <c r="C89">
-        <v>0.01618860024364689</v>
+        <v>0.02032201031169336</v>
       </c>
       <c r="D89">
-        <v>-0.2330934210635729</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.237305193105818</v>
+      </c>
+      <c r="E89">
+        <v>0.04210760001366739</v>
+      </c>
+      <c r="F89">
+        <v>0.0837202871957769</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1551009970752788</v>
+        <v>-0.1653471316937614</v>
       </c>
       <c r="C90">
-        <v>0.03868369654225504</v>
+        <v>0.04327861044109885</v>
       </c>
       <c r="D90">
-        <v>-0.2594722994773304</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2606241090808573</v>
+      </c>
+      <c r="E90">
+        <v>0.06591506748261462</v>
+      </c>
+      <c r="F90">
+        <v>0.1188336594807292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1261744329367253</v>
+        <v>-0.1212592038096046</v>
       </c>
       <c r="C91">
-        <v>0.02682277609144989</v>
+        <v>0.02505685352463849</v>
       </c>
       <c r="D91">
-        <v>-0.01275582415371863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01020578556890685</v>
+      </c>
+      <c r="E91">
+        <v>-0.0381811986953545</v>
+      </c>
+      <c r="F91">
+        <v>-0.09517219788373846</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1542564515012748</v>
+        <v>-0.1574098300134172</v>
       </c>
       <c r="C92">
-        <v>0.02945793822210854</v>
+        <v>0.03361957703020424</v>
       </c>
       <c r="D92">
-        <v>-0.2889320954573283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2911756737395621</v>
+      </c>
+      <c r="E92">
+        <v>0.05053719469569984</v>
+      </c>
+      <c r="F92">
+        <v>0.07976240246964791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1584343904011916</v>
+        <v>-0.1672072199974159</v>
       </c>
       <c r="C93">
-        <v>0.03433785334653071</v>
+        <v>0.03778511117239169</v>
       </c>
       <c r="D93">
-        <v>-0.2516753594489248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2535893352179029</v>
+      </c>
+      <c r="E93">
+        <v>0.02226501419070889</v>
+      </c>
+      <c r="F93">
+        <v>0.05745052764517592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1268424876157878</v>
+        <v>-0.1197760794458553</v>
       </c>
       <c r="C94">
-        <v>0.03044961616893853</v>
+        <v>0.02673717329219846</v>
       </c>
       <c r="D94">
-        <v>0.04702308370128173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04847913645756151</v>
+      </c>
+      <c r="E94">
+        <v>-0.05828310970401941</v>
+      </c>
+      <c r="F94">
+        <v>-0.06259480947100847</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.126305848792713</v>
+        <v>-0.1286365794862218</v>
       </c>
       <c r="C95">
-        <v>0.01284022417350189</v>
+        <v>0.007724408844145477</v>
       </c>
       <c r="D95">
-        <v>0.1071901699804581</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1147895815683206</v>
+      </c>
+      <c r="E95">
+        <v>-0.01273203089662281</v>
+      </c>
+      <c r="F95">
+        <v>-0.03577744373566769</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.163371417726518</v>
+        <v>-0.1469844204345531</v>
       </c>
       <c r="C96">
-        <v>-0.9809777841647819</v>
+        <v>-0.9827531726573614</v>
       </c>
       <c r="D96">
-        <v>-0.02867649457050147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.0489001575661202</v>
+      </c>
+      <c r="E96">
+        <v>-0.06486952618012361</v>
+      </c>
+      <c r="F96">
+        <v>-0.01045722095505682</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1935834700452313</v>
+        <v>-0.1951774132859715</v>
       </c>
       <c r="C97">
-        <v>0.005082400787863958</v>
+        <v>0.0006147251515940334</v>
       </c>
       <c r="D97">
-        <v>-0.01767459070415842</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01960356220365526</v>
+      </c>
+      <c r="E97">
+        <v>0.1430309365123389</v>
+      </c>
+      <c r="F97">
+        <v>-0.1037346557485819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1931677217318001</v>
+        <v>-0.2002599415357663</v>
       </c>
       <c r="C98">
-        <v>0.01773349304096805</v>
+        <v>0.01274827645260236</v>
       </c>
       <c r="D98">
-        <v>0.001120212909382859</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.005815863769903855</v>
+      </c>
+      <c r="E98">
+        <v>0.1341604124370099</v>
+      </c>
+      <c r="F98">
+        <v>0.05766314955072219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05756996992381341</v>
+        <v>-0.05710758785776393</v>
       </c>
       <c r="C99">
-        <v>-0.0004493381977551223</v>
+        <v>-0.002471295454799773</v>
       </c>
       <c r="D99">
-        <v>0.05181492344281904</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.05432882808981009</v>
+      </c>
+      <c r="E99">
+        <v>-0.0006580089152425786</v>
+      </c>
+      <c r="F99">
+        <v>-0.004316305616054162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1233778624247953</v>
+        <v>-0.1164656654614104</v>
       </c>
       <c r="C100">
-        <v>-0.03271097126322825</v>
+        <v>-0.03913418726697651</v>
       </c>
       <c r="D100">
-        <v>0.3006149898596434</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.2870589762158873</v>
+      </c>
+      <c r="E100">
+        <v>0.5731998337847737</v>
+      </c>
+      <c r="F100">
+        <v>0.6672258531670361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02561355109826285</v>
+        <v>-0.02776237892729815</v>
       </c>
       <c r="C101">
-        <v>0.00971877119541913</v>
+        <v>0.009275550863174756</v>
       </c>
       <c r="D101">
-        <v>0.03887116433943205</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0379317012579271</v>
+      </c>
+      <c r="E101">
+        <v>0.00522985091897486</v>
+      </c>
+      <c r="F101">
+        <v>-0.02247586381234935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
